--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-imagingstudy.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-imagingstudy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T11:27:24+00:00</t>
+    <t>2024-12-18T10:05:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -491,13 +491,13 @@
     <t>Identifiers for the ImagingStudy such as DICOM Study Instance UID, and Accession Number.</t>
   </si>
   <si>
-    <t>See discussion under [Imaging Study Implementation Notes](imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.</t>
+    <t>See discussion under [Imaging Study Implementation Notes](http://hl7.org/fhir/R4/imagingstudy.html#notes) for encoding of DICOM Study Instance UID. Accession Number should use ACSN Identifier type.</t>
   </si>
   <si>
     <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).</t>
   </si>
   <si>
-    <t xml:space="preserve">pattern:$this}
+    <t xml:space="preserve">value:$this}
 </t>
   </si>
   <si>

--- a/ig/ch-rad-order/StructureDefinition-ch-rad-order-imagingstudy.xlsx
+++ b/ig/ch-rad-order/StructureDefinition-ch-rad-order-imagingstudy.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-18T10:05:02+00:00</t>
+    <t>2025-12-17T07:22:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -370,7 +370,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -637,7 +637,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -734,7 +734,7 @@
     <t>ImagingStudy.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -892,7 +892,7 @@
     <t>ImagingStudy.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -949,7 +949,7 @@
     <t>ImagingStudy.basedOn</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|ServiceRequest|Appointment|AppointmentResponse|Task)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|ServiceRequest|4.0.1|Appointment|4.0.1|AppointmentResponse|4.0.1|Task|4.0.1)
 </t>
   </si>
   <si>
@@ -981,7 +981,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -1022,7 +1022,7 @@
     <t>ImagingStudy.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Endpoint)
+    <t xml:space="preserve">Reference(Endpoint|4.0.1)
 </t>
   </si>
   <si>
@@ -1086,7 +1086,7 @@
     <t>ImagingStudy.procedureReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Procedure)
+    <t xml:space="preserve">Reference(Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1130,7 +1130,7 @@
     <t>ImagingStudy.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1173,7 +1173,7 @@
     <t>The reason for the study.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/procedure-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/procedure-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1191,7 +1191,7 @@
     <t>ImagingStudy.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Observation|Media|DiagnosticReport|DocumentReference)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Observation|4.0.1|Media|4.0.1|DiagnosticReport|4.0.1|DocumentReference|4.0.1)
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>.targetSiteCode</t>
@@ -1440,7 +1440,7 @@
     <t>Codes describing body site laterality (left, right, etc.).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/bodysite-laterality</t>
+    <t>http://hl7.org/fhir/ValueSet/bodysite-laterality|4.0.1</t>
   </si>
   <si>
     <t>(0020,0060)</t>
@@ -1449,7 +1449,7 @@
     <t>ImagingStudy.series.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen)
+    <t xml:space="preserve">Reference(Specimen|4.0.1)
 </t>
   </si>
   <si>
@@ -1526,7 +1526,7 @@
     <t>The type of involvement of the performer.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/series-performer-function</t>
+    <t>http://hl7.org/fhir/ValueSet/series-performer-function|4.0.1</t>
   </si>
   <si>
     <t>ImagingStudy.series.performer.actor</t>
@@ -1984,17 +1984,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="48.6640625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.81640625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.94140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="41.72265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="40.13671875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.5234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="237.3359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2003,27 +2003,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="59.36328125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="87.2265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="38.37890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="50.890625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="74.78125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.90234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="114.25" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="104.890625" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="97.94921875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="89.92578125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="24.1328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3319,7 +3319,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
         <v>160</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>200</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>210</v>
       </c>
@@ -4378,7 +4378,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>236</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>244</v>
       </c>
@@ -5088,7 +5088,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
         <v>245</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
         <v>248</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
         <v>268</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
         <v>391</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
         <v>403</v>
       </c>
@@ -8221,7 +8221,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
         <v>419</v>
       </c>
@@ -9145,7 +9145,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
         <v>464</v>
       </c>
@@ -9732,7 +9732,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
         <v>481</v>
       </c>
@@ -9847,7 +9847,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>487</v>
       </c>
@@ -10313,7 +10313,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>494</v>
       </c>
@@ -10432,7 +10432,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>502</v>
       </c>
@@ -10781,12 +10781,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AO75">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
